--- a/RCaNmodel/inst/extdata/CaN_template_mini_generic.xlsx
+++ b/RCaNmodel/inst/extdata/CaN_template_mini_generic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Constraints" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Input time-series" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Dynamics" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Aliases" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Fluxes!$A$1:$D$5</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t xml:space="preserve">Template for input data to CaN generic models</t>
   </si>
@@ -331,13 +332,26 @@
       <t xml:space="preserve">)</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F01 + F02 + F04 + F08 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -451,7 +465,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,6 +483,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,6 +519,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -575,7 +610,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="100"/>
@@ -741,8 +776,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -761,7 +796,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -835,8 +870,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -854,10 +889,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="207" zoomScaleNormal="207" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="15.33"/>
@@ -888,7 +923,7 @@
       <c r="C2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -903,7 +938,7 @@
       <c r="C3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -918,7 +953,7 @@
       <c r="C4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -933,7 +968,7 @@
       <c r="C5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -975,8 +1010,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -997,7 +1032,7 @@
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="103"/>
@@ -1079,7 +1114,7 @@
       <c r="B5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -1096,7 +1131,7 @@
       <c r="B6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -1113,7 +1148,7 @@
       <c r="B7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -1130,7 +1165,7 @@
       <c r="B8" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -1147,7 +1182,7 @@
       <c r="B9" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -1164,7 +1199,7 @@
       <c r="B10" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
@@ -1181,7 +1216,7 @@
       <c r="B11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="0" t="n">
@@ -1198,7 +1233,7 @@
       <c r="B12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="0" t="n">
@@ -1256,8 +1291,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1292,11 +1327,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="8.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="6" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="8.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="7" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="7" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="8.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="17" style="2" width="10.5"/>
   </cols>
   <sheetData>
@@ -1340,9 +1375,9 @@
       <c r="M1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1384,9 +1419,9 @@
       <c r="M2" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1428,9 +1463,9 @@
       <c r="M3" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1472,9 +1507,9 @@
       <c r="M4" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1516,190 +1551,190 @@
       <c r="M5" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1714,11 +1749,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -1748,17 +1783,57 @@
       <c r="A4" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>